--- a/양식샘플-테이블명세-양식.xlsx
+++ b/양식샘플-테이블명세-양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505233\Documents\workspace\dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31470EC-FB9E-402D-A5C4-94D156E8D1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0172CC42-6AA2-4342-8E4B-D554B844DC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>학생(정보)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sb_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,6 +221,18 @@
   </si>
   <si>
     <t>sb_calss_room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서 시스템에서 사용자가 도서정보를 저장할 Table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1783,7 +1791,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -1806,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1825,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -3089,7 +3097,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -3110,7 +3118,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3131,7 +3139,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3466,12 +3474,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
